--- a/docs/examples/results/EnrichmentOutputDirectory/KEGGAnalysis/analysisKEGGMixedMulti.xlsx
+++ b/docs/examples/results/EnrichmentOutputDirectory/KEGGAnalysis/analysisKEGGMixedMulti.xlsx
@@ -156,7 +156,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
